--- a/04_memo/map16.xlsx
+++ b/04_memo/map16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F9452E1-8763-4E67-8E6D-AF79A67B9E12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A5FBF-0C6C-4E9E-8AFF-E6FB7E745507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL4" sqref="AL4"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1722,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
         <v>5</v>
@@ -1755,10 +1755,10 @@
         <v>5</v>
       </c>
       <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
         <v>2</v>
-      </c>
-      <c r="R11" s="4">
-        <v>8</v>
       </c>
       <c r="S11" s="1">
         <v>1</v>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V17" s="1">
         <v>0</v>

--- a/04_memo/map16.xlsx
+++ b/04_memo/map16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A5FBF-0C6C-4E9E-8AFF-E6FB7E745507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F730AD90-512B-4509-A183-8978AA79F1CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1213,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="3">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U5" s="1">
         <v>7</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O13" s="1">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -1965,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P14" s="4">
         <v>1</v>
@@ -2148,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U17" s="1">
         <v>8</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
